--- a/biology/Médecine/Récessus_sphéno-ethmoïdal/Récessus_sphéno-ethmoïdal.xlsx
+++ b/biology/Médecine/Récessus_sphéno-ethmoïdal/Récessus_sphéno-ethmoïdal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cessus_sph%C3%A9no-ethmo%C3%AFdal</t>
+          <t>Récessus_sphéno-ethmoïdal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récessus sphéno-ethmoïdal est une gouttière étroite située dans la cavité nasale osseuse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cessus_sph%C3%A9no-ethmo%C3%AFdal</t>
+          <t>Récessus_sphéno-ethmoïdal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,49 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récessus sphéno-ethmoïdal est situé entre le cornet nasal supérieur et la face antérieure du corps du sphénoïde.
 Sa partie inférieure correspond à la partie postérieure du méat nasal supérieur. A cet endroit s'ouvre le foramen sphénopalatin.
-Variation
-Lorsqu'il est présent, le cornet nasal suprême est située sur la paroi latérale du récessus sphéno-ethmoïdal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Récessus_sphéno-ethmoïdal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cessus_sph%C3%A9no-ethmo%C3%AFdal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'il est présent, le cornet nasal suprême est située sur la paroi latérale du récessus sphéno-ethmoïdal.
 </t>
         </is>
       </c>
